--- a/doc/案例/广州市轨道交通/广州地铁.xlsx
+++ b/doc/案例/广州市轨道交通/广州地铁.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\案例\广州市轨道交通\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\GitHub\MetroNetwork\doc\案例\广州市轨道交通\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="459" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="459" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="149">
   <si>
     <t>体育西路</t>
   </si>
@@ -572,12 +572,30 @@
     <t>中山八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DVAI</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>t2-t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3-t2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4-t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +665,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -674,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -766,13 +790,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +909,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,2307 +1226,2808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="H1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(G$2,G$3)</f>
-        <v>2494</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>832</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
+      <c r="H2">
+        <f t="shared" ref="H2:H14" ca="1" si="0">RANDBETWEEN(F$2,F$3)</f>
+        <v>60350</v>
+      </c>
+      <c r="I2">
+        <f ca="1">ROUND((RAND()*0.3+1)*H2,0)</f>
+        <v>66291</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B39" ca="1" si="0">RANDBETWEEN(G$2,G$3)</f>
-        <v>22056</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
         <v>75499</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>23223</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" ca="1" si="1">ROUND((RAND()*0.3+1)*H3,0)</f>
+        <v>26099</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>38043</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>45</v>
       </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>33009</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>34877</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3842</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59293</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>68528</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>34193</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>47</v>
+        <v>5811</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>6309</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>36799</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45245</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>48096</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>29109</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73630</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>85302</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>11707</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>50</v>
       </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>14862</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>15775</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>10255</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>68</v>
+        <v>67504</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>85735</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>51522</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1121</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>35454</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>52</v>
       </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>14255</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>15955</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>34786</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>53</v>
+        <v>48724</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>61142</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>30057</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>55</v>
+        <v>43446</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="1"/>
+        <v>46507</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="22">
         <v>75499</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>54</v>
+      <c r="I15">
+        <f t="shared" ca="1" si="1"/>
+        <v>78313</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>6692</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="24" t="s">
         <v>56</v>
       </c>
+      <c r="H16">
+        <f ca="1">RANDBETWEEN(F$2,F$3)</f>
+        <v>34852</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>40773</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="22">
         <v>20095</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>57</v>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>23587</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>60248</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
         <v>3</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>58</v>
       </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H39" ca="1" si="2">RANDBETWEEN(F$2,F$3)</f>
+        <v>51505</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>66725</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3461</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
         <v>2</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>59</v>
       </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>58078</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>64739</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>37607</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
         <v>2</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>60</v>
       </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>63300</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>79275</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>30088</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
         <v>2</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>5994</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7139</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>34534</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
         <v>2</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="24" t="s">
         <v>62</v>
       </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>3096</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3745</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>38309</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
         <v>2</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>39462</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="1"/>
+        <v>49936</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>17498</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
         <v>2</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="24" t="s">
         <v>64</v>
       </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>50091</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="1"/>
+        <v>62225</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>40729</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
         <v>2</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="G25" s="24" t="s">
         <v>65</v>
       </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>48127</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="1"/>
+        <v>53662</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>16034</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
         <v>5</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="G26" s="24" t="s">
         <v>66</v>
       </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>43062</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="1"/>
+        <v>46370</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>32604</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
         <v>2</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>67</v>
       </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>28757</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="1"/>
+        <v>35927</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>64560</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
         <v>6</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>140</v>
       </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>34322</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="1"/>
+        <v>35758</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>29229</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
         <v>2</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="G29" s="24" t="s">
         <v>69</v>
       </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>1377</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1657</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>6802</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
         <v>2</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>70</v>
       </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>10544</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="1"/>
+        <v>11130</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>14176</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
         <v>8</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>20065</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="1"/>
+        <v>20641</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>33745</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
         <v>2</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="G32" s="24" t="s">
         <v>72</v>
       </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="2"/>
+        <v>27372</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="1"/>
+        <v>29285</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>71377</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
         <v>2</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="G33" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="2"/>
+        <v>54577</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="1"/>
+        <v>59974</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>59233</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
         <v>2</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="G34" s="24" t="s">
         <v>74</v>
       </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>9550</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="1"/>
+        <v>11485</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>23067</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
         <v>2</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="G35" s="24" t="s">
         <v>75</v>
       </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="2"/>
+        <v>33144</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="1"/>
+        <v>40411</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>70561</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
         <v>2</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>76</v>
       </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="2"/>
+        <v>16636</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="1"/>
+        <v>17858</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>36479</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
         <v>2</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="G37" s="24" t="s">
         <v>77</v>
       </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="2"/>
+        <v>7008</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="1"/>
+        <v>7702</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>31554</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
         <v>2</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="G38" s="24" t="s">
         <v>78</v>
       </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="2"/>
+        <v>65331</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="1"/>
+        <v>82849</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>56961</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
         <v>2</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="G39" s="24" t="s">
         <v>79</v>
       </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
+        <v>16298</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="1"/>
+        <v>17166</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="22">
         <v>32514</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17">
-        <v>3</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>10</v>
+      <c r="I40">
+        <f t="shared" ca="1" si="1"/>
+        <v>40220</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="22">
         <v>51827</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17">
-        <v>3</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>9</v>
+      <c r="I41">
+        <f t="shared" ca="1" si="1"/>
+        <v>65876</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="22">
         <v>30726</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17">
-        <v>3</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>8</v>
+      <c r="I42">
+        <f t="shared" ca="1" si="1"/>
+        <v>39887</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17">
+        <v>3</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="22">
         <v>37914</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17">
-        <v>3</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>7</v>
+      <c r="I43">
+        <f t="shared" ca="1" si="1"/>
+        <v>44737</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="22">
         <v>28886</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17">
-        <v>3</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>6</v>
+      <c r="I44">
+        <f t="shared" ca="1" si="1"/>
+        <v>36973</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="22">
         <v>9983</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17">
-        <v>3</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>5</v>
+      <c r="I45">
+        <f t="shared" ca="1" si="1"/>
+        <v>12656</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="22">
         <v>18575</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17">
-        <v>3</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>4</v>
+      <c r="I46">
+        <f t="shared" ca="1" si="1"/>
+        <v>23590</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="22">
         <v>832</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" s="17">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>8</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>3</v>
+      <c r="I47">
+        <f t="shared" ca="1" si="1"/>
+        <v>872</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="22">
         <v>21815</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17">
-        <v>3</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>2</v>
+      <c r="I48">
+        <f t="shared" ca="1" si="1"/>
+        <v>22363</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="17">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22">
         <v>45025</v>
       </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" s="17">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>1</v>
+      <c r="I49">
+        <f t="shared" ca="1" si="1"/>
+        <v>56181</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>3</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="22">
         <v>39867</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="17">
-        <v>3</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>15</v>
+      <c r="I50">
+        <f t="shared" ca="1" si="1"/>
+        <v>40888</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="17">
+        <v>3</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="22">
         <v>59637</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17">
-        <v>3</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>14</v>
+      <c r="I51">
+        <f t="shared" ca="1" si="1"/>
+        <v>67564</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="22">
         <v>33428</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17">
-        <v>3</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>13</v>
+      <c r="I52">
+        <f t="shared" ca="1" si="1"/>
+        <v>34293</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17">
+        <v>3</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="22">
         <v>28054</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="17">
-        <v>3</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>12</v>
+      <c r="I53">
+        <f t="shared" ca="1" si="1"/>
+        <v>32422</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="22">
         <v>51830</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="17">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>11</v>
+      <c r="I54">
+        <f t="shared" ca="1" si="1"/>
+        <v>52409</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="22">
         <v>25618</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="17">
-        <v>3</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>16</v>
+      <c r="I55">
+        <f t="shared" ca="1" si="1"/>
+        <v>26930</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="22">
         <v>47926</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="17">
-        <v>3</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>17</v>
+      <c r="I56">
+        <f t="shared" ca="1" si="1"/>
+        <v>51273</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="17">
+        <v>3</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="22">
         <v>30813</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="17">
-        <v>3</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>18</v>
+      <c r="I57">
+        <f t="shared" ca="1" si="1"/>
+        <v>31487</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="17">
+        <v>3</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="22">
         <v>11208</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="17">
-        <v>3</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>19</v>
+      <c r="I58">
+        <f t="shared" ca="1" si="1"/>
+        <v>14102</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="17">
+        <v>3</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="22">
         <v>24878</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="17">
-        <v>3</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>20</v>
+      <c r="I59">
+        <f t="shared" ca="1" si="1"/>
+        <v>26951</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="17">
+        <v>3</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="22">
         <v>41620</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="17">
-        <v>3</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>21</v>
+      <c r="I60">
+        <f t="shared" ca="1" si="1"/>
+        <v>47414</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="17">
+        <v>3</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="22">
         <v>31214</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="17">
-        <v>3</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>22</v>
+      <c r="I61">
+        <f t="shared" ca="1" si="1"/>
+        <v>39175</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="17">
+        <v>3</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="22">
         <v>19878</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17">
-        <v>3</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>23</v>
+      <c r="I62">
+        <f t="shared" ca="1" si="1"/>
+        <v>22329</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="17">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="22">
         <v>31620</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" s="17">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>24</v>
+      <c r="I63">
+        <f t="shared" ca="1" si="1"/>
+        <v>37324</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="17">
+        <v>3</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="22">
         <v>29741</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="17">
-        <v>3</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>26</v>
+      <c r="I64">
+        <f t="shared" ca="1" si="1"/>
+        <v>30775</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:B125" ca="1" si="1">RANDBETWEEN(G$2,G$3)</f>
-        <v>47930</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
         <v>4</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="G65" s="23" t="s">
         <v>80</v>
       </c>
+      <c r="H65">
+        <f t="shared" ref="H65:H96" ca="1" si="3">RANDBETWEEN(F$2,F$3)</f>
+        <v>1931</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="1"/>
+        <v>2023</v>
+      </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="17">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="3"/>
+        <v>18178</v>
+      </c>
+      <c r="I66">
         <f t="shared" ca="1" si="1"/>
-        <v>63286</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>81</v>
+        <v>21157</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="17">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ca="1" si="1"/>
-        <v>28727</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
         <v>4</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="G67" s="23" t="s">
         <v>82</v>
       </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="3"/>
+        <v>10319</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I125" ca="1" si="4">ROUND((RAND()*0.3+1)*H67,0)</f>
+        <v>12035</v>
+      </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="1"/>
-        <v>26391</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
         <v>4</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>83</v>
       </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="3"/>
+        <v>12458</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="4"/>
+        <v>14462</v>
+      </c>
     </row>
-    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="1"/>
-        <v>68144</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
         <v>4</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="3"/>
+        <v>21369</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="4"/>
+        <v>27201</v>
+      </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="17">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="1"/>
-        <v>58094</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
         <v>4</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="G70" s="23" t="s">
         <v>85</v>
       </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="3"/>
+        <v>26803</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="4"/>
+        <v>28558</v>
+      </c>
     </row>
-    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="17">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="1"/>
-        <v>11096</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
         <v>4</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="G71" s="23" t="s">
         <v>86</v>
       </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="3"/>
+        <v>66379</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="4"/>
+        <v>69012</v>
+      </c>
     </row>
-    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="1"/>
-        <v>5967</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
         <v>4</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="G72" s="23" t="s">
         <v>87</v>
       </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="3"/>
+        <v>36270</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="4"/>
+        <v>41733</v>
+      </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="17">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="1"/>
-        <v>7507</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
         <v>4</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="G73" s="23" t="s">
         <v>88</v>
       </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="3"/>
+        <v>41412</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="4"/>
+        <v>53504</v>
+      </c>
     </row>
-    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="17">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="1"/>
-        <v>23770</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
         <v>4</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="G74" s="23" t="s">
         <v>89</v>
       </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="3"/>
+        <v>62747</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="4"/>
+        <v>71562</v>
+      </c>
     </row>
-    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="17">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="1"/>
-        <v>66838</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
         <v>4</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="G75" s="23" t="s">
         <v>90</v>
       </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="3"/>
+        <v>46773</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="4"/>
+        <v>55301</v>
+      </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="17">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="1"/>
-        <v>9787</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
         <v>4</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="G76" s="23" t="s">
         <v>91</v>
       </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="3"/>
+        <v>17462</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="4"/>
+        <v>21090</v>
+      </c>
     </row>
-    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="17">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="1"/>
-        <v>7871</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
         <v>8</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="G77" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="3"/>
+        <v>54413</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="4"/>
+        <v>62918</v>
+      </c>
     </row>
-    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="1"/>
-        <v>55158</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78">
         <v>5</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="G78" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="3"/>
+        <v>32304</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="4"/>
+        <v>33360</v>
+      </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="1"/>
-        <v>24858</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
         <v>4</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="G79" s="23" t="s">
         <v>94</v>
       </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="3"/>
+        <v>2208</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="4"/>
+        <v>2399</v>
+      </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="1"/>
-        <v>12592</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
         <v>4</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="G80" s="23" t="s">
         <v>95</v>
       </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="3"/>
+        <v>26450</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="4"/>
+        <v>26804</v>
+      </c>
     </row>
-    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="1"/>
-        <v>14631</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
         <v>5</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="G81" s="23" t="s">
         <v>96</v>
       </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="3"/>
+        <v>34741</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="4"/>
+        <v>38415</v>
+      </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="1"/>
-        <v>37358</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
         <v>5</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="G82" s="23" t="s">
         <v>97</v>
       </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="3"/>
+        <v>66776</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="4"/>
+        <v>82998</v>
+      </c>
     </row>
-    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="1"/>
-        <v>6358</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
         <v>5</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="G83" s="23" t="s">
         <v>98</v>
       </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="3"/>
+        <v>36721</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="4"/>
+        <v>47272</v>
+      </c>
     </row>
-    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="17">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="1"/>
-        <v>27109</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
         <v>5</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="G84" s="23" t="s">
         <v>99</v>
       </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="3"/>
+        <v>39585</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="4"/>
+        <v>40123</v>
+      </c>
     </row>
-    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="1"/>
-        <v>40758</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
         <v>5</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="G85" s="23" t="s">
         <v>100</v>
       </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="3"/>
+        <v>34525</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="4"/>
+        <v>43889</v>
+      </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="1"/>
-        <v>69494</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
         <v>5</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="G86" s="23" t="s">
         <v>101</v>
       </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="3"/>
+        <v>4532</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="4"/>
+        <v>5332</v>
+      </c>
     </row>
-    <row r="87" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="1"/>
-        <v>37097</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
         <v>5</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="G87" s="23" t="s">
         <v>102</v>
       </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="3"/>
+        <v>5129</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="4"/>
+        <v>6658</v>
+      </c>
     </row>
-    <row r="88" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="1"/>
-        <v>43167</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
         <v>5</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="G88" s="23" t="s">
         <v>103</v>
       </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="3"/>
+        <v>952</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="4"/>
+        <v>1115</v>
+      </c>
     </row>
-    <row r="89" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="1"/>
-        <v>55952</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
         <v>5</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="G89" s="23" t="s">
         <v>104</v>
       </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="3"/>
+        <v>35042</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="4"/>
+        <v>43924</v>
+      </c>
     </row>
-    <row r="90" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="1"/>
-        <v>5694</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
         <v>5</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="G90" s="23" t="s">
         <v>105</v>
       </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="3"/>
+        <v>9249</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="4"/>
+        <v>9296</v>
+      </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="1"/>
-        <v>7951</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
         <v>5</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="G91" s="23" t="s">
         <v>106</v>
       </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="3"/>
+        <v>6543</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="4"/>
+        <v>7218</v>
+      </c>
     </row>
-    <row r="92" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="1"/>
-        <v>68842</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
         <v>5</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="G92" s="23" t="s">
         <v>107</v>
       </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="3"/>
+        <v>44387</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="4"/>
+        <v>44727</v>
+      </c>
     </row>
-    <row r="93" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="1"/>
-        <v>50618</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93">
         <v>6</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="G93" s="23" t="s">
         <v>108</v>
       </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="3"/>
+        <v>36713</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="4"/>
+        <v>38368</v>
+      </c>
     </row>
-    <row r="94" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="1"/>
-        <v>55109</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
         <v>5</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="G94" s="23" t="s">
         <v>109</v>
       </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="3"/>
+        <v>45349</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="4"/>
+        <v>50651</v>
+      </c>
     </row>
-    <row r="95" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="1"/>
-        <v>9645</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
         <v>5</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="G95" s="23" t="s">
         <v>110</v>
       </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="3"/>
+        <v>36416</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="4"/>
+        <v>43520</v>
+      </c>
     </row>
-    <row r="96" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="1"/>
-        <v>45537</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
         <v>5</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="G96" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="3"/>
+        <v>50661</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="4"/>
+        <v>57721</v>
+      </c>
     </row>
-    <row r="97" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="1"/>
-        <v>15746</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
         <v>5</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="G97" s="23" t="s">
         <v>112</v>
       </c>
+      <c r="H97">
+        <f t="shared" ref="H97:H125" ca="1" si="5">RANDBETWEEN(F$2,F$3)</f>
+        <v>38580</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="4"/>
+        <v>43265</v>
+      </c>
     </row>
-    <row r="98" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="1"/>
-        <v>73572</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
         <v>5</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="G98" s="23" t="s">
         <v>142</v>
       </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="5"/>
+        <v>36631</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="4"/>
+        <v>39078</v>
+      </c>
     </row>
-    <row r="99" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="1"/>
-        <v>50164</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99">
         <v>6</v>
       </c>
-      <c r="H99" s="23" t="s">
+      <c r="G99" s="23" t="s">
         <v>113</v>
       </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="5"/>
+        <v>9894</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="4"/>
+        <v>10136</v>
+      </c>
     </row>
-    <row r="100" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="1"/>
-        <v>73485</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
         <v>5</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="G100" s="23" t="s">
         <v>114</v>
       </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="5"/>
+        <v>46461</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="4"/>
+        <v>51171</v>
+      </c>
     </row>
-    <row r="101" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="1"/>
-        <v>42902</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
         <v>6</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="G101" s="23" t="s">
         <v>115</v>
       </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="5"/>
+        <v>49465</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="4"/>
+        <v>50047</v>
+      </c>
     </row>
-    <row r="102" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" ca="1" si="1"/>
-        <v>61131</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
         <v>6</v>
       </c>
-      <c r="H102" s="23" t="s">
+      <c r="G102" s="23" t="s">
         <v>116</v>
       </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="5"/>
+        <v>51530</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="4"/>
+        <v>65564</v>
+      </c>
     </row>
-    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" ca="1" si="1"/>
-        <v>33574</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
         <v>6</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="G103" s="23" t="s">
         <v>117</v>
       </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="5"/>
+        <v>13267</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="4"/>
+        <v>15683</v>
+      </c>
     </row>
-    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" ca="1" si="1"/>
-        <v>37506</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
         <v>6</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="G104" s="23" t="s">
         <v>118</v>
       </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="5"/>
+        <v>18613</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="4"/>
+        <v>21444</v>
+      </c>
     </row>
-    <row r="105" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" ca="1" si="1"/>
-        <v>28293</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
         <v>6</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="G105" s="23" t="s">
         <v>119</v>
       </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="5"/>
+        <v>38631</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ca="1" si="4"/>
+        <v>47874</v>
+      </c>
     </row>
-    <row r="106" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" ca="1" si="1"/>
-        <v>7546</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
         <v>6</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="G106" s="23" t="s">
         <v>120</v>
       </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="5"/>
+        <v>16130</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ca="1" si="4"/>
+        <v>18533</v>
+      </c>
     </row>
-    <row r="107" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" ca="1" si="1"/>
-        <v>53367</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
         <v>6</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="G107" s="23" t="s">
         <v>121</v>
       </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="5"/>
+        <v>68009</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ca="1" si="4"/>
+        <v>75179</v>
+      </c>
     </row>
-    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" ca="1" si="1"/>
-        <v>52534</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
         <v>6</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="G108" s="23" t="s">
         <v>122</v>
       </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="5"/>
+        <v>3713</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ca="1" si="4"/>
+        <v>3875</v>
+      </c>
     </row>
-    <row r="109" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" ca="1" si="1"/>
-        <v>7227</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
         <v>6</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="G109" s="23" t="s">
         <v>123</v>
       </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="5"/>
+        <v>11826</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ca="1" si="4"/>
+        <v>14439</v>
+      </c>
     </row>
-    <row r="110" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" ca="1" si="1"/>
-        <v>27077</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
         <v>6</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="G110" s="23" t="s">
         <v>124</v>
       </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="5"/>
+        <v>63404</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ca="1" si="4"/>
+        <v>80204</v>
+      </c>
     </row>
-    <row r="111" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" ca="1" si="1"/>
-        <v>15689</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
         <v>6</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>125</v>
       </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="5"/>
+        <v>10092</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ca="1" si="4"/>
+        <v>10430</v>
+      </c>
     </row>
-    <row r="112" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="17">
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" ca="1" si="1"/>
-        <v>56123</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
         <v>6</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="G112" s="23" t="s">
         <v>126</v>
       </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="5"/>
+        <v>37244</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ca="1" si="4"/>
+        <v>47490</v>
+      </c>
     </row>
-    <row r="113" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113">
-        <f t="shared" ca="1" si="1"/>
-        <v>13288</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
         <v>6</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>127</v>
       </c>
+      <c r="H113">
+        <f t="shared" ca="1" si="5"/>
+        <v>19781</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ca="1" si="4"/>
+        <v>21114</v>
+      </c>
     </row>
-    <row r="114" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114">
-        <f t="shared" ca="1" si="1"/>
-        <v>57670</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
         <v>6</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="G114" s="23" t="s">
         <v>128</v>
       </c>
+      <c r="H114">
+        <f t="shared" ca="1" si="5"/>
+        <v>2043</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ca="1" si="4"/>
+        <v>2625</v>
+      </c>
     </row>
-    <row r="115" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="17">
         <v>114</v>
       </c>
       <c r="B115">
-        <f t="shared" ca="1" si="1"/>
-        <v>12236</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
         <v>6</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="G115" s="23" t="s">
         <v>129</v>
       </c>
+      <c r="H115">
+        <f t="shared" ca="1" si="5"/>
+        <v>38115</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ca="1" si="4"/>
+        <v>43149</v>
+      </c>
     </row>
-    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="17">
         <v>115</v>
       </c>
       <c r="B116">
-        <f t="shared" ca="1" si="1"/>
-        <v>23729</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
         <v>8</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="G116" s="23" t="s">
         <v>130</v>
       </c>
+      <c r="H116">
+        <f t="shared" ca="1" si="5"/>
+        <v>51622</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ca="1" si="4"/>
+        <v>54804</v>
+      </c>
     </row>
-    <row r="117" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="17">
         <v>116</v>
       </c>
       <c r="B117">
-        <f t="shared" ca="1" si="1"/>
-        <v>63575</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
         <v>8</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="G117" s="23" t="s">
         <v>131</v>
       </c>
+      <c r="H117">
+        <f t="shared" ca="1" si="5"/>
+        <v>18698</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ca="1" si="4"/>
+        <v>23534</v>
+      </c>
     </row>
-    <row r="118" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="17">
         <v>117</v>
       </c>
       <c r="B118">
-        <f t="shared" ca="1" si="1"/>
-        <v>11196</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
         <v>8</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="G118" s="23" t="s">
         <v>132</v>
       </c>
+      <c r="H118">
+        <f t="shared" ca="1" si="5"/>
+        <v>57671</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ca="1" si="4"/>
+        <v>70049</v>
+      </c>
     </row>
-    <row r="119" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="17">
         <v>118</v>
       </c>
       <c r="B119">
-        <f t="shared" ca="1" si="1"/>
-        <v>32319</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
         <v>8</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="G119" s="23" t="s">
         <v>133</v>
       </c>
+      <c r="H119">
+        <f t="shared" ca="1" si="5"/>
+        <v>65701</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ca="1" si="4"/>
+        <v>70386</v>
+      </c>
     </row>
-    <row r="120" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="17">
         <v>119</v>
       </c>
       <c r="B120">
-        <f t="shared" ca="1" si="1"/>
-        <v>31901</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
         <v>8</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="G120" s="23" t="s">
         <v>134</v>
       </c>
+      <c r="H120">
+        <f t="shared" ca="1" si="5"/>
+        <v>25102</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ca="1" si="4"/>
+        <v>27088</v>
+      </c>
     </row>
-    <row r="121" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="17">
         <v>120</v>
       </c>
       <c r="B121">
-        <f t="shared" ca="1" si="1"/>
-        <v>15372</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
         <v>8</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="G121" s="23" t="s">
         <v>135</v>
       </c>
+      <c r="H121">
+        <f t="shared" ca="1" si="5"/>
+        <v>73672</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ca="1" si="4"/>
+        <v>93307</v>
+      </c>
     </row>
-    <row r="122" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="17">
         <v>121</v>
       </c>
       <c r="B122">
-        <f t="shared" ca="1" si="1"/>
-        <v>14953</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
         <v>8</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="G122" s="23" t="s">
         <v>136</v>
       </c>
+      <c r="H122">
+        <f t="shared" ca="1" si="5"/>
+        <v>19535</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ca="1" si="4"/>
+        <v>23799</v>
+      </c>
     </row>
-    <row r="123" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="17">
         <v>122</v>
       </c>
       <c r="B123">
-        <f t="shared" ca="1" si="1"/>
-        <v>6569</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
         <v>8</v>
       </c>
-      <c r="H123" s="23" t="s">
+      <c r="G123" s="23" t="s">
         <v>137</v>
       </c>
+      <c r="H123">
+        <f t="shared" ca="1" si="5"/>
+        <v>71261</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ca="1" si="4"/>
+        <v>85479</v>
+      </c>
     </row>
-    <row r="124" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="17">
         <v>123</v>
       </c>
       <c r="B124">
-        <f t="shared" ca="1" si="1"/>
-        <v>35195</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
         <v>8</v>
       </c>
-      <c r="H124" s="23" t="s">
+      <c r="G124" s="23" t="s">
         <v>138</v>
       </c>
+      <c r="H124">
+        <f t="shared" ca="1" si="5"/>
+        <v>62569</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ca="1" si="4"/>
+        <v>69689</v>
+      </c>
     </row>
-    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="17">
         <v>124</v>
       </c>
       <c r="B125">
-        <f t="shared" ca="1" si="1"/>
-        <v>61352</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
         <v>8</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="G125" s="23" t="s">
         <v>139</v>
+      </c>
+      <c r="H125">
+        <f t="shared" ca="1" si="5"/>
+        <v>16975</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ca="1" si="4"/>
+        <v>21351</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3469,11 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2025" ySplit="525" topLeftCell="CQ69" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="DG93" sqref="DG93"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:DU125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3865,7 +4431,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2581</v>
+        <v>2156</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4246,7 +4812,7 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2436</v>
+        <v>2486</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4627,7 +5193,7 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3615</v>
+        <v>3743</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5008,7 +5574,7 @@
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3787</v>
+        <v>3576</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -5389,7 +5955,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2937</v>
+        <v>2553</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5684,11 +6250,11 @@
       </c>
       <c r="DA6">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2831</v>
+        <v>2808</v>
       </c>
       <c r="DB6">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2707</v>
+        <v>2174</v>
       </c>
       <c r="DC6">
         <v>0</v>
@@ -5772,7 +6338,7 @@
       </c>
       <c r="H7">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3309</v>
+        <v>3944</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6153,7 +6719,7 @@
       </c>
       <c r="I8">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2293</v>
+        <v>2454</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6534,7 +7100,7 @@
       </c>
       <c r="J9">
         <f ca="1">RANDBETWEEN(4000,5000)</f>
-        <v>4223</v>
+        <v>4073</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -6915,7 +7481,7 @@
       </c>
       <c r="K10">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2751</v>
+        <v>2947</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -6964,11 +7530,11 @@
       </c>
       <c r="AA10">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3598</v>
+        <v>3684</v>
       </c>
       <c r="AB10">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3772</v>
+        <v>3495</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -7298,7 +7864,7 @@
       </c>
       <c r="L11">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2893</v>
+        <v>2591</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -7679,7 +8245,7 @@
       </c>
       <c r="M12">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2768</v>
+        <v>2104</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -8060,7 +8626,7 @@
       </c>
       <c r="N13">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2558</v>
+        <v>2689</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -8298,7 +8864,7 @@
       </c>
       <c r="CO13">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2941</v>
+        <v>2315</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -8350,7 +8916,10 @@
       </c>
       <c r="DF13">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2230</v>
+        <v>2958</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
       </c>
       <c r="DH13">
         <v>0</v>
@@ -8440,7 +9009,7 @@
       </c>
       <c r="O14">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2007</v>
+        <v>2335</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -8669,11 +9238,11 @@
       </c>
       <c r="CM14">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2245</v>
+        <v>2954</v>
       </c>
       <c r="CN14">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2845</v>
+        <v>2034</v>
       </c>
       <c r="CO14">
         <v>0</v>
@@ -8823,7 +9392,7 @@
       </c>
       <c r="P15">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2488</v>
+        <v>2525</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -9204,7 +9773,7 @@
       </c>
       <c r="Q16">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2501</v>
+        <v>2151</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -9965,7 +10534,7 @@
       </c>
       <c r="S18">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2213</v>
+        <v>2473</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10346,7 +10915,7 @@
       </c>
       <c r="T19">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2682</v>
+        <v>2279</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -10727,7 +11296,7 @@
       </c>
       <c r="U20">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2366</v>
+        <v>2096</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -11108,7 +11677,7 @@
       </c>
       <c r="V21">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2227</v>
+        <v>2060</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -11489,7 +12058,7 @@
       </c>
       <c r="W22">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2618</v>
+        <v>2867</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -11870,7 +12439,7 @@
       </c>
       <c r="X23">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2155</v>
+        <v>2351</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -12251,7 +12820,7 @@
       </c>
       <c r="Y24">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3853</v>
+        <v>3908</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -12632,7 +13201,7 @@
       </c>
       <c r="Z25">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2611</v>
+        <v>2462</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -13013,7 +13582,7 @@
       </c>
       <c r="AA26">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2971</v>
+        <v>2387</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -13218,11 +13787,11 @@
       </c>
       <c r="CQ26">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3438</v>
+        <v>3922</v>
       </c>
       <c r="CR26">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3229</v>
+        <v>3515</v>
       </c>
       <c r="CS26">
         <v>0</v>
@@ -13776,7 +14345,7 @@
       </c>
       <c r="AC28">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2583</v>
+        <v>2676</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -14011,11 +14580,11 @@
       </c>
       <c r="DC28">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2582</v>
+        <v>2934</v>
       </c>
       <c r="DD28">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2335</v>
+        <v>2371</v>
       </c>
       <c r="DE28">
         <v>0</v>
@@ -14159,7 +14728,7 @@
       </c>
       <c r="AD29">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -14540,7 +15109,7 @@
       </c>
       <c r="AE30">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2408</v>
+        <v>2501</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -14921,7 +15490,7 @@
       </c>
       <c r="AF31">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2702</v>
+        <v>2678</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -15180,11 +15749,11 @@
       </c>
       <c r="DN31">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2789</v>
+        <v>2301</v>
       </c>
       <c r="DO31">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2630</v>
+        <v>2303</v>
       </c>
       <c r="DP31">
         <v>0</v>
@@ -15304,7 +15873,7 @@
       </c>
       <c r="AG32">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2273</v>
+        <v>2172</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -15685,7 +16254,7 @@
       </c>
       <c r="AH33">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2459</v>
+        <v>2773</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -16066,7 +16635,7 @@
       </c>
       <c r="AI34">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2135</v>
+        <v>2439</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -16447,7 +17016,7 @@
       </c>
       <c r="AJ35">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2419</v>
+        <v>2445</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -16828,7 +17397,7 @@
       </c>
       <c r="AK36">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3232</v>
+        <v>3268</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -17209,7 +17778,7 @@
       </c>
       <c r="AL37">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3693</v>
+        <v>3286</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -17590,7 +18159,7 @@
       </c>
       <c r="AM38">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2370</v>
+        <v>2835</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -21230,11 +21799,11 @@
       </c>
       <c r="DQ47">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3879</v>
+        <v>3376</v>
       </c>
       <c r="DR47">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2084</v>
+        <v>2174</v>
       </c>
       <c r="DS47">
         <v>0</v>
@@ -21893,11 +22462,11 @@
       </c>
       <c r="CL49">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2861</v>
+        <v>2797</v>
       </c>
       <c r="CM49">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2055</v>
+        <v>2401</v>
       </c>
       <c r="CN49">
         <v>0</v>
@@ -27245,7 +27814,7 @@
       </c>
       <c r="DJ63">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3107</v>
+        <v>3128</v>
       </c>
       <c r="DK63">
         <v>0</v>
@@ -27856,7 +28425,7 @@
       </c>
       <c r="BN65">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2930</v>
+        <v>2705</v>
       </c>
       <c r="BO65">
         <v>0</v>
@@ -28237,7 +28806,7 @@
       </c>
       <c r="BO66">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3667</v>
+        <v>3276</v>
       </c>
       <c r="BP66">
         <v>0</v>
@@ -28618,7 +29187,7 @@
       </c>
       <c r="BP67">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2595</v>
+        <v>2006</v>
       </c>
       <c r="BQ67">
         <v>0</v>
@@ -28999,7 +29568,7 @@
       </c>
       <c r="BQ68">
         <f ca="1">RANDBETWEEN(5000,6000)</f>
-        <v>5609</v>
+        <v>5632</v>
       </c>
       <c r="BR68">
         <v>0</v>
@@ -29380,7 +29949,7 @@
       </c>
       <c r="BR69">
         <f ca="1">RANDBETWEEN(4000,5000)</f>
-        <v>4181</v>
+        <v>4522</v>
       </c>
       <c r="BS69">
         <v>0</v>
@@ -29761,7 +30330,7 @@
       </c>
       <c r="BS70">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3162</v>
+        <v>3861</v>
       </c>
       <c r="BT70">
         <v>0</v>
@@ -30142,7 +30711,7 @@
       </c>
       <c r="BT71">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3993</v>
+        <v>3911</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -30523,7 +31092,7 @@
       </c>
       <c r="BU72">
         <f ca="1">RANDBETWEEN(8000,9000)</f>
-        <v>8912</v>
+        <v>8092</v>
       </c>
       <c r="BV72">
         <v>0</v>
@@ -30904,7 +31473,7 @@
       </c>
       <c r="BV73">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3649</v>
+        <v>3427</v>
       </c>
       <c r="BW73">
         <v>0</v>
@@ -31285,7 +31854,7 @@
       </c>
       <c r="BW74">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3099</v>
+        <v>3927</v>
       </c>
       <c r="BX74">
         <v>0</v>
@@ -31666,7 +32235,7 @@
       </c>
       <c r="BX75">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2805</v>
+        <v>2113</v>
       </c>
       <c r="BY75">
         <v>0</v>
@@ -32047,7 +32616,7 @@
       </c>
       <c r="BY76">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3918</v>
+        <v>3169</v>
       </c>
       <c r="BZ76">
         <v>0</v>
@@ -32428,7 +32997,7 @@
       </c>
       <c r="BZ77">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2142</v>
+        <v>2452</v>
       </c>
       <c r="CA77">
         <v>0</v>
@@ -32570,7 +33139,7 @@
       </c>
       <c r="DU77">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2105</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="78" spans="1:125" ht="14.25" x14ac:dyDescent="0.15">
@@ -32810,7 +33379,7 @@
       </c>
       <c r="CA78">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3711</v>
+        <v>3367</v>
       </c>
       <c r="CB78">
         <v>0</v>
@@ -32832,11 +33401,11 @@
       </c>
       <c r="CH78">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2785</v>
+        <v>2406</v>
       </c>
       <c r="CI78">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3834</v>
+        <v>3813</v>
       </c>
       <c r="CJ78">
         <v>0</v>
@@ -33193,7 +33762,7 @@
       </c>
       <c r="CB79">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3666</v>
+        <v>3721</v>
       </c>
       <c r="CC79">
         <v>0</v>
@@ -33954,7 +34523,7 @@
       </c>
       <c r="CD81">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1776</v>
+        <v>1423</v>
       </c>
       <c r="CE81">
         <v>0</v>
@@ -34335,7 +34904,7 @@
       </c>
       <c r="CE82">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2785</v>
+        <v>2461</v>
       </c>
       <c r="CF82">
         <v>0</v>
@@ -34716,7 +35285,7 @@
       </c>
       <c r="CF83">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3460</v>
+        <v>3304</v>
       </c>
       <c r="CG83">
         <v>0</v>
@@ -35097,7 +35666,7 @@
       </c>
       <c r="CG84">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2429</v>
+        <v>2145</v>
       </c>
       <c r="CH84">
         <v>0</v>
@@ -35478,7 +36047,7 @@
       </c>
       <c r="CH85">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3255</v>
+        <v>3051</v>
       </c>
       <c r="CI85">
         <v>0</v>
@@ -36239,7 +36808,7 @@
       </c>
       <c r="CJ87">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2861</v>
+        <v>2903</v>
       </c>
       <c r="CK87">
         <v>0</v>
@@ -36620,7 +37189,7 @@
       </c>
       <c r="CK88">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3467</v>
+        <v>3356</v>
       </c>
       <c r="CL88">
         <v>0</v>
@@ -37001,7 +37570,7 @@
       </c>
       <c r="CL89">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2427</v>
+        <v>2071</v>
       </c>
       <c r="CM89">
         <v>0</v>
@@ -38142,7 +38711,7 @@
       </c>
       <c r="CO92">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2823</v>
+        <v>2699</v>
       </c>
       <c r="CP92">
         <v>0</v>
@@ -38523,7 +39092,7 @@
       </c>
       <c r="CP93">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2409</v>
+        <v>2367</v>
       </c>
       <c r="CQ93">
         <v>0</v>
@@ -38575,7 +39144,7 @@
       </c>
       <c r="DG93">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2398</v>
+        <v>2088</v>
       </c>
       <c r="DH93">
         <v>0</v>
@@ -38905,7 +39474,7 @@
       </c>
       <c r="CQ94">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2124</v>
+        <v>2353</v>
       </c>
       <c r="CR94">
         <v>0</v>
@@ -39666,7 +40235,7 @@
       </c>
       <c r="CS96">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2425</v>
+        <v>2357</v>
       </c>
       <c r="CT96">
         <v>0</v>
@@ -40047,7 +40616,7 @@
       </c>
       <c r="CT97">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2184</v>
+        <v>2581</v>
       </c>
       <c r="CU97">
         <v>0</v>
@@ -40428,7 +40997,7 @@
       </c>
       <c r="CU98">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2945</v>
+        <v>2525</v>
       </c>
       <c r="CV98">
         <v>0</v>
@@ -40809,7 +41378,7 @@
       </c>
       <c r="CV99">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2786</v>
+        <v>2417</v>
       </c>
       <c r="CW99">
         <v>0</v>
@@ -40822,11 +41391,11 @@
       </c>
       <c r="CZ99">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2598</v>
+        <v>2061</v>
       </c>
       <c r="DA99">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2522</v>
+        <v>2627</v>
       </c>
       <c r="DB99">
         <v>0</v>
@@ -41572,7 +42141,7 @@
       </c>
       <c r="CX101">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2436</v>
+        <v>2322</v>
       </c>
       <c r="CY101">
         <v>0</v>
@@ -41953,7 +42522,7 @@
       </c>
       <c r="CY102">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2300</v>
+        <v>2120</v>
       </c>
       <c r="CZ102">
         <v>0</v>
@@ -42334,7 +42903,7 @@
       </c>
       <c r="CZ103">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2946</v>
+        <v>2512</v>
       </c>
       <c r="DA103">
         <v>0</v>
@@ -43475,7 +44044,7 @@
       </c>
       <c r="DC106">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2302</v>
+        <v>2160</v>
       </c>
       <c r="DD106">
         <v>0</v>
@@ -44236,7 +44805,7 @@
       </c>
       <c r="DE108">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2262</v>
+        <v>2120</v>
       </c>
       <c r="DF108">
         <v>0</v>
@@ -44617,7 +45186,7 @@
       </c>
       <c r="DF109">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2648</v>
+        <v>2540</v>
       </c>
       <c r="DG109">
         <v>0</v>
@@ -45378,7 +45947,7 @@
       </c>
       <c r="DH111">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2474</v>
+        <v>2202</v>
       </c>
       <c r="DI111">
         <v>0</v>
@@ -45759,7 +46328,7 @@
       </c>
       <c r="DI112">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1439</v>
+        <v>1694</v>
       </c>
       <c r="DJ112">
         <v>0</v>
@@ -46140,7 +46709,7 @@
       </c>
       <c r="DJ113">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1748</v>
+        <v>1776</v>
       </c>
       <c r="DK113">
         <v>0</v>
@@ -47281,7 +47850,7 @@
       </c>
       <c r="DM116">
         <f ca="1">RANDBETWEEN(1000,2000)</f>
-        <v>1040</v>
+        <v>1627</v>
       </c>
       <c r="DN116">
         <v>0</v>
@@ -47662,7 +48231,7 @@
       </c>
       <c r="DN117">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2816</v>
+        <v>2789</v>
       </c>
       <c r="DO117">
         <v>0</v>
@@ -48423,7 +48992,7 @@
       </c>
       <c r="DP119">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2451</v>
+        <v>2774</v>
       </c>
       <c r="DQ119">
         <v>0</v>
@@ -48804,7 +49373,7 @@
       </c>
       <c r="DQ120">
         <f ca="1">RANDBETWEEN(3000,4000)</f>
-        <v>3049</v>
+        <v>3011</v>
       </c>
       <c r="DR120">
         <v>0</v>
@@ -49565,7 +50134,7 @@
       </c>
       <c r="DS122">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2051</v>
+        <v>2460</v>
       </c>
       <c r="DT122">
         <v>0</v>
@@ -49946,7 +50515,7 @@
       </c>
       <c r="DT123">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>3000</v>
+        <v>2540</v>
       </c>
       <c r="DU123">
         <v>0</v>
@@ -50327,7 +50896,7 @@
       </c>
       <c r="DU124">
         <f ca="1">RANDBETWEEN(2000,3000)</f>
-        <v>2901</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="125" spans="1:125" ht="14.25" x14ac:dyDescent="0.15">
@@ -51485,10 +52054,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I35"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -51558,7 +52127,7 @@
       </c>
       <c r="O2" s="9">
         <f ca="1">RANDBETWEEN(2000,80000)</f>
-        <v>4186</v>
+        <v>61373</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51593,7 +52162,7 @@
       </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O17" ca="1" si="3">RANDBETWEEN(2000,80000)</f>
-        <v>74095</v>
+        <v>49630</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51627,7 +52196,7 @@
       </c>
       <c r="O4" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>58580</v>
+        <v>78657</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51662,7 +52231,7 @@
       </c>
       <c r="O5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2131</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51697,7 +52266,7 @@
       </c>
       <c r="O6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>56274</v>
+        <v>36594</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51732,7 +52301,7 @@
       </c>
       <c r="O7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>44469</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51766,7 +52335,7 @@
       </c>
       <c r="O8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>51193</v>
+        <v>61288</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51800,7 +52369,7 @@
       </c>
       <c r="O9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>4692</v>
+        <v>52813</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51835,7 +52404,7 @@
       </c>
       <c r="O10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>34105</v>
+        <v>34951</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51869,7 +52438,7 @@
       </c>
       <c r="O11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>59336</v>
+        <v>34999</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51904,7 +52473,7 @@
       </c>
       <c r="O12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>52399</v>
+        <v>62882</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51939,7 +52508,7 @@
       </c>
       <c r="O13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>54535</v>
+        <v>16845</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -51973,7 +52542,7 @@
       </c>
       <c r="O14" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>19335</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -52008,7 +52577,7 @@
       </c>
       <c r="O15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>10325</v>
+        <v>24934</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -52042,10 +52611,10 @@
       </c>
       <c r="O16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>63019</v>
+        <v>38188</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -52077,10 +52646,10 @@
       </c>
       <c r="O17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>22780</v>
+        <v>43443</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -52109,7 +52678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -52126,7 +52695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -52143,7 +52712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -52160,7 +52729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -52177,7 +52746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -52194,7 +52763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -52211,7 +52780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -52227,8 +52796,26 @@
       <c r="I26">
         <v>3</v>
       </c>
+      <c r="L26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" t="s">
+        <v>148</v>
+      </c>
+      <c r="T26" t="s">
+        <v>146</v>
+      </c>
+      <c r="U26" t="s">
+        <v>147</v>
+      </c>
+      <c r="V26" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -52244,8 +52831,35 @@
       <c r="I27">
         <v>7</v>
       </c>
+      <c r="K27" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="30">
+        <v>85</v>
+      </c>
+      <c r="M27" s="30">
+        <v>87</v>
+      </c>
+      <c r="N27" s="30">
+        <v>72</v>
+      </c>
+      <c r="O27" s="32">
+        <v>244</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="T27" s="30">
+        <v>85</v>
+      </c>
+      <c r="U27" s="30">
+        <v>87</v>
+      </c>
+      <c r="V27" s="30">
+        <v>72</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -52261,8 +52875,35 @@
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="K28" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="31">
+        <v>65</v>
+      </c>
+      <c r="M28" s="31">
+        <v>69</v>
+      </c>
+      <c r="N28" s="31">
+        <v>53</v>
+      </c>
+      <c r="O28">
+        <v>187</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="U28">
+        <v>17</v>
+      </c>
+      <c r="V28">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -52278,8 +52919,35 @@
       <c r="I29">
         <v>11</v>
       </c>
+      <c r="K29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>33</v>
+      </c>
+      <c r="O29">
+        <v>73</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="U29">
+        <v>31</v>
+      </c>
+      <c r="V29">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -52295,8 +52963,35 @@
       <c r="I30">
         <v>6</v>
       </c>
+      <c r="K30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>38</v>
+      </c>
+      <c r="O30">
+        <v>103</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T30" s="31">
+        <v>65</v>
+      </c>
+      <c r="U30" s="31">
+        <v>69</v>
+      </c>
+      <c r="V30" s="31">
+        <v>53</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -52312,8 +53007,35 @@
       <c r="I31">
         <v>8</v>
       </c>
+      <c r="K31" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>88</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T31">
+        <v>37</v>
+      </c>
+      <c r="U31">
+        <v>28</v>
+      </c>
+      <c r="V31">
+        <v>38</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -52329,8 +53051,35 @@
       <c r="I32">
         <v>12</v>
       </c>
+      <c r="K32" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>44</v>
+      </c>
+      <c r="O32">
+        <v>115</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T32">
+        <v>33</v>
+      </c>
+      <c r="U32">
+        <v>38</v>
+      </c>
+      <c r="V32">
+        <v>44</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>14</v>
       </c>
@@ -52347,7 +53096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
@@ -52364,7 +53113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -52379,6 +53128,93 @@
       </c>
       <c r="I35">
         <v>2</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L36" s="30">
+        <v>85</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>27</v>
+      </c>
+      <c r="O36" s="31">
+        <v>65</v>
+      </c>
+      <c r="P36">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
+      <c r="L37" s="30">
+        <v>87</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>31</v>
+      </c>
+      <c r="O37" s="31">
+        <v>69</v>
+      </c>
+      <c r="P37">
+        <v>28</v>
+      </c>
+      <c r="Q37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="30">
+        <v>72</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>30</v>
+      </c>
+      <c r="O38" s="31">
+        <v>53</v>
+      </c>
+      <c r="P38">
+        <v>38</v>
+      </c>
+      <c r="Q38">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
